--- a/raw_data/ALL_DATA.xlsx
+++ b/raw_data/ALL_DATA.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195BC8F-E5A6-6F4F-B050-E77259842365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1017C174-F746-ED46-A63F-547985B16605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" activeTab="2" xr2:uid="{0814E0DA-9756-BD47-ACCA-B46152B63678}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{0814E0DA-9756-BD47-ACCA-B46152B63678}"/>
   </bookViews>
   <sheets>
-    <sheet name="Priority Queue" sheetId="1" r:id="rId1"/>
-    <sheet name="Bucket Sort" sheetId="6" r:id="rId2"/>
-    <sheet name="Insert Sort" sheetId="7" r:id="rId3"/>
+    <sheet name="ALL_DATA" sheetId="8" r:id="rId1"/>
+    <sheet name="Priority Queue" sheetId="1" r:id="rId2"/>
+    <sheet name="Bucket Sort" sheetId="6" r:id="rId3"/>
+    <sheet name="Insert Sort" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="list_size_with_csv" localSheetId="0">'Priority Queue'!$A$1:$FO$1</definedName>
-    <definedName name="running_seconds_with_csv" localSheetId="0">'Priority Queue'!$C$2:$FO$2</definedName>
+    <definedName name="list_size_with_csv" localSheetId="1">'Priority Queue'!$A$1:$FO$1</definedName>
+    <definedName name="running_seconds_with_csv" localSheetId="1">'Priority Queue'!$C$2:$FO$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>LIST AMOUNT</t>
   </si>
@@ -402,6 +403,18 @@
   </si>
   <si>
     <t>RUNNING TIME evenly spread bucket</t>
+  </si>
+  <si>
+    <t>RUNNING TIME bucketSort with comparable</t>
+  </si>
+  <si>
+    <t>RUNNING TIME PRIORITY-Q</t>
+  </si>
+  <si>
+    <t>RUNNING TIME BucketSort</t>
+  </si>
+  <si>
+    <t>RUNNING TIME InsertionSort</t>
   </si>
 </sst>
 </file>
@@ -460,11 +473,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{CC7C7092-9A8D-6546-959D-F8ADEE656A23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{B05F0BF9-1E04-6D4D-B669-0A4716D6F422}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{B05F0BF9-1E04-6D4D-B669-0A4716D6F422}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{CC7C7092-9A8D-6546-959D-F8ADEE656A23}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,11 +776,3106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475063C1-F0A9-B847-AB1E-F18915A4A942}">
+  <dimension ref="A1:E171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>39370</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90232</v>
+      </c>
+      <c r="D2">
+        <v>22304</v>
+      </c>
+      <c r="E2" t="b">
+        <f>B2&gt;C2&gt;D2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>36790</v>
+      </c>
+      <c r="C3" s="1">
+        <v>51920</v>
+      </c>
+      <c r="D3">
+        <v>29591</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E66" si="0">B3&gt;C3&gt;D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>27132</v>
+      </c>
+      <c r="C4" s="1">
+        <v>63905</v>
+      </c>
+      <c r="D4">
+        <v>10075</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>42208</v>
+      </c>
+      <c r="C5" s="1">
+        <v>49868</v>
+      </c>
+      <c r="D5">
+        <v>12031</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>62877</v>
+      </c>
+      <c r="C6" s="1">
+        <v>56584</v>
+      </c>
+      <c r="D6">
+        <v>11267</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>90113</v>
+      </c>
+      <c r="C7" s="1">
+        <v>63479</v>
+      </c>
+      <c r="D7">
+        <v>11122</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>123619</v>
+      </c>
+      <c r="C8" s="1">
+        <v>59493</v>
+      </c>
+      <c r="D8">
+        <v>11007</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>159482</v>
+      </c>
+      <c r="C9" s="1">
+        <v>62859</v>
+      </c>
+      <c r="D9">
+        <v>14074</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>200890</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69438</v>
+      </c>
+      <c r="D10">
+        <v>13883</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>261793</v>
+      </c>
+      <c r="C11" s="1">
+        <v>75145</v>
+      </c>
+      <c r="D11">
+        <v>13933</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>337458</v>
+      </c>
+      <c r="C12" s="1">
+        <v>95535</v>
+      </c>
+      <c r="D12">
+        <v>32030</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>381444</v>
+      </c>
+      <c r="C13" s="1">
+        <v>87261</v>
+      </c>
+      <c r="D13">
+        <v>9718</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>934874</v>
+      </c>
+      <c r="C14" s="1">
+        <v>112586</v>
+      </c>
+      <c r="D14">
+        <v>12674</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>541911</v>
+      </c>
+      <c r="C15" s="1">
+        <v>94125</v>
+      </c>
+      <c r="D15">
+        <v>9645</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>627374</v>
+      </c>
+      <c r="C16" s="1">
+        <v>95223</v>
+      </c>
+      <c r="D16">
+        <v>16929</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>701461</v>
+      </c>
+      <c r="C17" s="1">
+        <v>105553</v>
+      </c>
+      <c r="D17">
+        <v>13263</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>773248</v>
+      </c>
+      <c r="C18" s="1">
+        <v>103038</v>
+      </c>
+      <c r="D18">
+        <v>12877</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>876482</v>
+      </c>
+      <c r="C19" s="1">
+        <v>105729</v>
+      </c>
+      <c r="D19">
+        <v>18289</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>1021620</v>
+      </c>
+      <c r="C20" s="1">
+        <v>115938</v>
+      </c>
+      <c r="D20">
+        <v>15430</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>1043571</v>
+      </c>
+      <c r="C21" s="1">
+        <v>105698</v>
+      </c>
+      <c r="D21">
+        <v>17976</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>400</v>
+      </c>
+      <c r="B22">
+        <v>1181560</v>
+      </c>
+      <c r="C22" s="1">
+        <v>143338</v>
+      </c>
+      <c r="D22">
+        <v>9596</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>2219985</v>
+      </c>
+      <c r="C23" s="1">
+        <v>170228</v>
+      </c>
+      <c r="D23">
+        <v>12378</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>400</v>
+      </c>
+      <c r="B24">
+        <v>1540331</v>
+      </c>
+      <c r="C24" s="1">
+        <v>147101</v>
+      </c>
+      <c r="D24">
+        <v>27463</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>400</v>
+      </c>
+      <c r="B25">
+        <v>1514172</v>
+      </c>
+      <c r="C25" s="1">
+        <v>155386</v>
+      </c>
+      <c r="D25">
+        <v>15266</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>400</v>
+      </c>
+      <c r="B26">
+        <v>1524692</v>
+      </c>
+      <c r="C26" s="1">
+        <v>155944</v>
+      </c>
+      <c r="D26">
+        <v>15451</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>400</v>
+      </c>
+      <c r="B27">
+        <v>2260133</v>
+      </c>
+      <c r="C27" s="1">
+        <v>170791</v>
+      </c>
+      <c r="D27">
+        <v>15731</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <v>2497998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>163808</v>
+      </c>
+      <c r="D28">
+        <v>19045</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>400</v>
+      </c>
+      <c r="B29">
+        <v>2043478</v>
+      </c>
+      <c r="C29" s="1">
+        <v>509628</v>
+      </c>
+      <c r="D29">
+        <v>18224</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>2154803</v>
+      </c>
+      <c r="C30" s="1">
+        <v>164213</v>
+      </c>
+      <c r="D30">
+        <v>18108</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>2385230</v>
+      </c>
+      <c r="C31" s="1">
+        <v>145180</v>
+      </c>
+      <c r="D31">
+        <v>18220</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>800</v>
+      </c>
+      <c r="B32">
+        <v>2744455</v>
+      </c>
+      <c r="C32" s="1">
+        <v>168071</v>
+      </c>
+      <c r="D32">
+        <v>9385</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>800</v>
+      </c>
+      <c r="B33">
+        <v>2815514</v>
+      </c>
+      <c r="C33" s="1">
+        <v>222349</v>
+      </c>
+      <c r="D33">
+        <v>12496</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>800</v>
+      </c>
+      <c r="B34">
+        <v>3502863</v>
+      </c>
+      <c r="C34" s="1">
+        <v>174805</v>
+      </c>
+      <c r="D34">
+        <v>12428</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>800</v>
+      </c>
+      <c r="B35">
+        <v>3427065</v>
+      </c>
+      <c r="C35" s="1">
+        <v>187062</v>
+      </c>
+      <c r="D35">
+        <v>9849</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>800</v>
+      </c>
+      <c r="B36">
+        <v>3026285</v>
+      </c>
+      <c r="C36" s="1">
+        <v>195479</v>
+      </c>
+      <c r="D36">
+        <v>9542</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>800</v>
+      </c>
+      <c r="B37">
+        <v>3165783</v>
+      </c>
+      <c r="C37" s="1">
+        <v>186977</v>
+      </c>
+      <c r="D37">
+        <v>12346</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>800</v>
+      </c>
+      <c r="B38">
+        <v>3528439</v>
+      </c>
+      <c r="C38" s="1">
+        <v>190902</v>
+      </c>
+      <c r="D38">
+        <v>12700</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39">
+        <v>5276998</v>
+      </c>
+      <c r="C39" s="1">
+        <v>200161</v>
+      </c>
+      <c r="D39">
+        <v>12757</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>800</v>
+      </c>
+      <c r="B40">
+        <v>4405560</v>
+      </c>
+      <c r="C40" s="1">
+        <v>192565</v>
+      </c>
+      <c r="D40">
+        <v>15344</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>800</v>
+      </c>
+      <c r="B41">
+        <v>3801474</v>
+      </c>
+      <c r="C41" s="1">
+        <v>163922</v>
+      </c>
+      <c r="D41">
+        <v>18546</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1600</v>
+      </c>
+      <c r="B42">
+        <v>4323239</v>
+      </c>
+      <c r="C42" s="1">
+        <v>187680</v>
+      </c>
+      <c r="D42">
+        <v>9683</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1600</v>
+      </c>
+      <c r="B43">
+        <v>4488792</v>
+      </c>
+      <c r="C43" s="1">
+        <v>193117</v>
+      </c>
+      <c r="D43">
+        <v>12517</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1600</v>
+      </c>
+      <c r="B44">
+        <v>5781360</v>
+      </c>
+      <c r="C44" s="1">
+        <v>194206</v>
+      </c>
+      <c r="D44">
+        <v>12720</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1600</v>
+      </c>
+      <c r="B45">
+        <v>5735277</v>
+      </c>
+      <c r="C45" s="1">
+        <v>214306</v>
+      </c>
+      <c r="D45">
+        <v>15175</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1600</v>
+      </c>
+      <c r="B46">
+        <v>9488033</v>
+      </c>
+      <c r="C46" s="1">
+        <v>219358</v>
+      </c>
+      <c r="D46">
+        <v>15410</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1600</v>
+      </c>
+      <c r="B47">
+        <v>8512905</v>
+      </c>
+      <c r="C47" s="1">
+        <v>205437</v>
+      </c>
+      <c r="D47">
+        <v>15274</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1600</v>
+      </c>
+      <c r="B48">
+        <v>15400782</v>
+      </c>
+      <c r="C48" s="1">
+        <v>207045</v>
+      </c>
+      <c r="D48">
+        <v>20508</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1600</v>
+      </c>
+      <c r="B49">
+        <v>8650516</v>
+      </c>
+      <c r="C49" s="1">
+        <v>207741</v>
+      </c>
+      <c r="D49">
+        <v>18277</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1600</v>
+      </c>
+      <c r="B50">
+        <v>9763517</v>
+      </c>
+      <c r="C50" s="1">
+        <v>220032</v>
+      </c>
+      <c r="D50">
+        <v>18424</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1600</v>
+      </c>
+      <c r="B51">
+        <v>8290248</v>
+      </c>
+      <c r="C51" s="1">
+        <v>251781</v>
+      </c>
+      <c r="D51">
+        <v>18746</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3200</v>
+      </c>
+      <c r="B52">
+        <v>8760201</v>
+      </c>
+      <c r="C52" s="1">
+        <v>239038</v>
+      </c>
+      <c r="D52">
+        <v>10470</v>
+      </c>
+      <c r="E52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3200</v>
+      </c>
+      <c r="B53">
+        <v>8976742</v>
+      </c>
+      <c r="C53" s="1">
+        <v>258698</v>
+      </c>
+      <c r="D53">
+        <v>10070</v>
+      </c>
+      <c r="E53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3200</v>
+      </c>
+      <c r="B54">
+        <v>8193592</v>
+      </c>
+      <c r="C54" s="1">
+        <v>238451</v>
+      </c>
+      <c r="D54">
+        <v>13166</v>
+      </c>
+      <c r="E54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3200</v>
+      </c>
+      <c r="B55">
+        <v>12286780</v>
+      </c>
+      <c r="C55" s="1">
+        <v>242195</v>
+      </c>
+      <c r="D55">
+        <v>9582</v>
+      </c>
+      <c r="E55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3200</v>
+      </c>
+      <c r="B56">
+        <v>10249075</v>
+      </c>
+      <c r="C56" s="1">
+        <v>252366</v>
+      </c>
+      <c r="D56">
+        <v>9963</v>
+      </c>
+      <c r="E56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3200</v>
+      </c>
+      <c r="B57">
+        <v>14857894</v>
+      </c>
+      <c r="C57" s="1">
+        <v>285602</v>
+      </c>
+      <c r="D57">
+        <v>21020</v>
+      </c>
+      <c r="E57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3200</v>
+      </c>
+      <c r="B58">
+        <v>10651328</v>
+      </c>
+      <c r="C58" s="1">
+        <v>243971</v>
+      </c>
+      <c r="D58">
+        <v>13441</v>
+      </c>
+      <c r="E58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3200</v>
+      </c>
+      <c r="B59">
+        <v>28877883</v>
+      </c>
+      <c r="C59" s="1">
+        <v>249637</v>
+      </c>
+      <c r="D59">
+        <v>16009</v>
+      </c>
+      <c r="E59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3200</v>
+      </c>
+      <c r="B60">
+        <v>12951668</v>
+      </c>
+      <c r="C60" s="1">
+        <v>254701</v>
+      </c>
+      <c r="D60">
+        <v>15786</v>
+      </c>
+      <c r="E60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3200</v>
+      </c>
+      <c r="B61">
+        <v>10028417</v>
+      </c>
+      <c r="C61" s="1">
+        <v>228830</v>
+      </c>
+      <c r="D61">
+        <v>18250</v>
+      </c>
+      <c r="E61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6400</v>
+      </c>
+      <c r="B62">
+        <v>10256810</v>
+      </c>
+      <c r="C62" s="1">
+        <v>254573</v>
+      </c>
+      <c r="D62">
+        <v>19844</v>
+      </c>
+      <c r="E62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6400</v>
+      </c>
+      <c r="B63">
+        <v>10396700</v>
+      </c>
+      <c r="C63" s="1">
+        <v>262861</v>
+      </c>
+      <c r="D63">
+        <v>13805</v>
+      </c>
+      <c r="E63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6400</v>
+      </c>
+      <c r="B64">
+        <v>13093371</v>
+      </c>
+      <c r="C64" s="1">
+        <v>277170</v>
+      </c>
+      <c r="D64">
+        <v>13582</v>
+      </c>
+      <c r="E64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6400</v>
+      </c>
+      <c r="B65">
+        <v>12448926</v>
+      </c>
+      <c r="C65" s="1">
+        <v>269734</v>
+      </c>
+      <c r="D65">
+        <v>15644</v>
+      </c>
+      <c r="E65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6400</v>
+      </c>
+      <c r="B66">
+        <v>11447765</v>
+      </c>
+      <c r="C66" s="1">
+        <v>349009</v>
+      </c>
+      <c r="D66">
+        <v>18116</v>
+      </c>
+      <c r="E66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6400</v>
+      </c>
+      <c r="B67">
+        <v>12141072</v>
+      </c>
+      <c r="C67" s="1">
+        <v>338715</v>
+      </c>
+      <c r="D67">
+        <v>18558</v>
+      </c>
+      <c r="E67" t="b">
+        <f t="shared" ref="E67:E130" si="1">B67&gt;C67&gt;D67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6400</v>
+      </c>
+      <c r="B68">
+        <v>16142079</v>
+      </c>
+      <c r="C68" s="1">
+        <v>293610</v>
+      </c>
+      <c r="D68">
+        <v>16165</v>
+      </c>
+      <c r="E68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>6400</v>
+      </c>
+      <c r="B69">
+        <v>11762945</v>
+      </c>
+      <c r="C69" s="1">
+        <v>287671</v>
+      </c>
+      <c r="D69">
+        <v>19252</v>
+      </c>
+      <c r="E69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6400</v>
+      </c>
+      <c r="B70">
+        <v>11866383</v>
+      </c>
+      <c r="C70" s="1">
+        <v>307913</v>
+      </c>
+      <c r="D70">
+        <v>18655</v>
+      </c>
+      <c r="E70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>6400</v>
+      </c>
+      <c r="B71">
+        <v>12426959</v>
+      </c>
+      <c r="C71" s="1">
+        <v>262994</v>
+      </c>
+      <c r="D71">
+        <v>21371</v>
+      </c>
+      <c r="E71" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>12800</v>
+      </c>
+      <c r="B72">
+        <v>13766417</v>
+      </c>
+      <c r="C72" s="1">
+        <v>297391</v>
+      </c>
+      <c r="D72">
+        <v>10799</v>
+      </c>
+      <c r="E72" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>12800</v>
+      </c>
+      <c r="B73">
+        <v>16248949</v>
+      </c>
+      <c r="C73" s="1">
+        <v>412782</v>
+      </c>
+      <c r="D73">
+        <v>9151</v>
+      </c>
+      <c r="E73" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>12800</v>
+      </c>
+      <c r="B74">
+        <v>23669399</v>
+      </c>
+      <c r="C74" s="1">
+        <v>366459</v>
+      </c>
+      <c r="D74">
+        <v>9714</v>
+      </c>
+      <c r="E74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>12800</v>
+      </c>
+      <c r="B75">
+        <v>25100521</v>
+      </c>
+      <c r="C75" s="1">
+        <v>383252</v>
+      </c>
+      <c r="D75">
+        <v>9884</v>
+      </c>
+      <c r="E75" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>12800</v>
+      </c>
+      <c r="B76">
+        <v>14207426</v>
+      </c>
+      <c r="C76" s="1">
+        <v>349801</v>
+      </c>
+      <c r="D76">
+        <v>9531</v>
+      </c>
+      <c r="E76" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>12800</v>
+      </c>
+      <c r="B77">
+        <v>16402317</v>
+      </c>
+      <c r="C77" s="1">
+        <v>362999</v>
+      </c>
+      <c r="D77">
+        <v>9270</v>
+      </c>
+      <c r="E77" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>12800</v>
+      </c>
+      <c r="B78">
+        <v>15686809</v>
+      </c>
+      <c r="C78" s="1">
+        <v>348032</v>
+      </c>
+      <c r="D78">
+        <v>9036</v>
+      </c>
+      <c r="E78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12800</v>
+      </c>
+      <c r="B79">
+        <v>18971809</v>
+      </c>
+      <c r="C79" s="1">
+        <v>358178</v>
+      </c>
+      <c r="D79">
+        <v>10703</v>
+      </c>
+      <c r="E79" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12800</v>
+      </c>
+      <c r="B80">
+        <v>15633464</v>
+      </c>
+      <c r="C80" s="1">
+        <v>346610</v>
+      </c>
+      <c r="D80">
+        <v>16130</v>
+      </c>
+      <c r="E80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12800</v>
+      </c>
+      <c r="B81">
+        <v>18319510</v>
+      </c>
+      <c r="C81" s="1">
+        <v>359220</v>
+      </c>
+      <c r="D81">
+        <v>30154</v>
+      </c>
+      <c r="E81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>25600</v>
+      </c>
+      <c r="B82">
+        <v>16646635</v>
+      </c>
+      <c r="C82" s="1">
+        <v>348554</v>
+      </c>
+      <c r="D82">
+        <v>10456</v>
+      </c>
+      <c r="E82" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>25600</v>
+      </c>
+      <c r="B83">
+        <v>19046375</v>
+      </c>
+      <c r="C83" s="1">
+        <v>375896</v>
+      </c>
+      <c r="D83">
+        <v>12613</v>
+      </c>
+      <c r="E83" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>25600</v>
+      </c>
+      <c r="B84">
+        <v>17609676</v>
+      </c>
+      <c r="C84" s="1">
+        <v>360879</v>
+      </c>
+      <c r="D84">
+        <v>12449</v>
+      </c>
+      <c r="E84" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>25600</v>
+      </c>
+      <c r="B85">
+        <v>17794950</v>
+      </c>
+      <c r="C85" s="1">
+        <v>415392</v>
+      </c>
+      <c r="D85">
+        <v>15843</v>
+      </c>
+      <c r="E85" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>25600</v>
+      </c>
+      <c r="B86">
+        <v>17999876</v>
+      </c>
+      <c r="C86" s="1">
+        <v>372654</v>
+      </c>
+      <c r="D86">
+        <v>15309</v>
+      </c>
+      <c r="E86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>25600</v>
+      </c>
+      <c r="B87">
+        <v>23330510</v>
+      </c>
+      <c r="C87" s="1">
+        <v>372778</v>
+      </c>
+      <c r="D87">
+        <v>15190</v>
+      </c>
+      <c r="E87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>25600</v>
+      </c>
+      <c r="B88">
+        <v>20581943</v>
+      </c>
+      <c r="C88" s="1">
+        <v>398924</v>
+      </c>
+      <c r="D88">
+        <v>15549</v>
+      </c>
+      <c r="E88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>25600</v>
+      </c>
+      <c r="B89">
+        <v>22230494</v>
+      </c>
+      <c r="C89" s="1">
+        <v>380178</v>
+      </c>
+      <c r="D89">
+        <v>18088</v>
+      </c>
+      <c r="E89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>25600</v>
+      </c>
+      <c r="B90">
+        <v>27728356</v>
+      </c>
+      <c r="C90" s="1">
+        <v>379481</v>
+      </c>
+      <c r="D90">
+        <v>18256</v>
+      </c>
+      <c r="E90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>25600</v>
+      </c>
+      <c r="B91">
+        <v>20790511</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1812165</v>
+      </c>
+      <c r="D91">
+        <v>18440</v>
+      </c>
+      <c r="E91" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>51200</v>
+      </c>
+      <c r="B92">
+        <v>19947218</v>
+      </c>
+      <c r="C92" s="1">
+        <v>398235</v>
+      </c>
+      <c r="D92">
+        <v>9825</v>
+      </c>
+      <c r="E92" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>51200</v>
+      </c>
+      <c r="B93">
+        <v>23017732</v>
+      </c>
+      <c r="C93" s="1">
+        <v>400984</v>
+      </c>
+      <c r="D93">
+        <v>9774</v>
+      </c>
+      <c r="E93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>51200</v>
+      </c>
+      <c r="B94">
+        <v>22730905</v>
+      </c>
+      <c r="C94" s="1">
+        <v>426164</v>
+      </c>
+      <c r="D94">
+        <v>12994</v>
+      </c>
+      <c r="E94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>51200</v>
+      </c>
+      <c r="B95">
+        <v>21466183</v>
+      </c>
+      <c r="C95" s="1">
+        <v>398104</v>
+      </c>
+      <c r="D95">
+        <v>9864</v>
+      </c>
+      <c r="E95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>51200</v>
+      </c>
+      <c r="B96">
+        <v>22847987</v>
+      </c>
+      <c r="C96" s="1">
+        <v>411731</v>
+      </c>
+      <c r="D96">
+        <v>19542</v>
+      </c>
+      <c r="E96" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>51200</v>
+      </c>
+      <c r="B97">
+        <v>23881389</v>
+      </c>
+      <c r="C97" s="1">
+        <v>399765</v>
+      </c>
+      <c r="D97">
+        <v>13158</v>
+      </c>
+      <c r="E97" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>51200</v>
+      </c>
+      <c r="B98">
+        <v>27858281</v>
+      </c>
+      <c r="C98" s="1">
+        <v>859534</v>
+      </c>
+      <c r="D98">
+        <v>24619</v>
+      </c>
+      <c r="E98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>51200</v>
+      </c>
+      <c r="B99">
+        <v>23377178</v>
+      </c>
+      <c r="C99" s="1">
+        <v>388400</v>
+      </c>
+      <c r="D99">
+        <v>15655</v>
+      </c>
+      <c r="E99" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>51200</v>
+      </c>
+      <c r="B100">
+        <v>29251754</v>
+      </c>
+      <c r="C100" s="1">
+        <v>407054</v>
+      </c>
+      <c r="D100">
+        <v>16050</v>
+      </c>
+      <c r="E100" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>51200</v>
+      </c>
+      <c r="B101">
+        <v>33492840</v>
+      </c>
+      <c r="C101" s="1">
+        <v>354143</v>
+      </c>
+      <c r="D101">
+        <v>18544</v>
+      </c>
+      <c r="E101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>102400</v>
+      </c>
+      <c r="B102">
+        <v>29643102</v>
+      </c>
+      <c r="C102" s="1">
+        <v>395383</v>
+      </c>
+      <c r="D102">
+        <v>9999</v>
+      </c>
+      <c r="E102" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102400</v>
+      </c>
+      <c r="B103">
+        <v>32106370</v>
+      </c>
+      <c r="C103" s="1">
+        <v>379834</v>
+      </c>
+      <c r="D103">
+        <v>13424</v>
+      </c>
+      <c r="E103" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102400</v>
+      </c>
+      <c r="B104">
+        <v>30381630</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1148267</v>
+      </c>
+      <c r="D104">
+        <v>13460</v>
+      </c>
+      <c r="E104" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>102400</v>
+      </c>
+      <c r="B105">
+        <v>35825864</v>
+      </c>
+      <c r="C105" s="1">
+        <v>543400</v>
+      </c>
+      <c r="D105">
+        <v>15100</v>
+      </c>
+      <c r="E105" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>102400</v>
+      </c>
+      <c r="B106">
+        <v>27916138</v>
+      </c>
+      <c r="C106" s="1">
+        <v>458229</v>
+      </c>
+      <c r="D106">
+        <v>14912</v>
+      </c>
+      <c r="E106" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>102400</v>
+      </c>
+      <c r="B107">
+        <v>28583577</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1526031</v>
+      </c>
+      <c r="D107">
+        <v>15422</v>
+      </c>
+      <c r="E107" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>102400</v>
+      </c>
+      <c r="B108">
+        <v>34257264</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1762301</v>
+      </c>
+      <c r="D108">
+        <v>18500</v>
+      </c>
+      <c r="E108" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>102400</v>
+      </c>
+      <c r="B109">
+        <v>28895942</v>
+      </c>
+      <c r="C109" s="1">
+        <v>438865</v>
+      </c>
+      <c r="D109">
+        <v>18598</v>
+      </c>
+      <c r="E109" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>102400</v>
+      </c>
+      <c r="B110">
+        <v>29290119</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1594588</v>
+      </c>
+      <c r="D110">
+        <v>18003</v>
+      </c>
+      <c r="E110" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>102400</v>
+      </c>
+      <c r="B111">
+        <v>30415070</v>
+      </c>
+      <c r="C111" s="1">
+        <v>379742</v>
+      </c>
+      <c r="D111">
+        <v>18972</v>
+      </c>
+      <c r="E111" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>204800</v>
+      </c>
+      <c r="B112">
+        <v>31596781</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5429375</v>
+      </c>
+      <c r="D112">
+        <v>10174</v>
+      </c>
+      <c r="E112" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>204800</v>
+      </c>
+      <c r="B113">
+        <v>34440013</v>
+      </c>
+      <c r="C113" s="1">
+        <v>13899822</v>
+      </c>
+      <c r="D113">
+        <v>9327</v>
+      </c>
+      <c r="E113" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>204800</v>
+      </c>
+      <c r="B114">
+        <v>32024928</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2856160</v>
+      </c>
+      <c r="D114">
+        <v>9557</v>
+      </c>
+      <c r="E114" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>204800</v>
+      </c>
+      <c r="B115">
+        <v>31954919</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3021147</v>
+      </c>
+      <c r="D115">
+        <v>9658</v>
+      </c>
+      <c r="E115" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>204800</v>
+      </c>
+      <c r="B116">
+        <v>32866042</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1050040</v>
+      </c>
+      <c r="D116">
+        <v>9997</v>
+      </c>
+      <c r="E116" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>204800</v>
+      </c>
+      <c r="B117">
+        <v>34746208</v>
+      </c>
+      <c r="C117" s="1">
+        <v>889067</v>
+      </c>
+      <c r="D117">
+        <v>12392</v>
+      </c>
+      <c r="E117" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>204800</v>
+      </c>
+      <c r="B118">
+        <v>33801145</v>
+      </c>
+      <c r="C118" s="1">
+        <v>871640</v>
+      </c>
+      <c r="D118">
+        <v>12641</v>
+      </c>
+      <c r="E118" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>204800</v>
+      </c>
+      <c r="B119">
+        <v>34064973</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1298093</v>
+      </c>
+      <c r="D119">
+        <v>12651</v>
+      </c>
+      <c r="E119" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>204800</v>
+      </c>
+      <c r="B120">
+        <v>37027027</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2566390</v>
+      </c>
+      <c r="D120">
+        <v>15841</v>
+      </c>
+      <c r="E120" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>204800</v>
+      </c>
+      <c r="B121">
+        <v>37217129</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3327922</v>
+      </c>
+      <c r="D121">
+        <v>18429</v>
+      </c>
+      <c r="E121" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>409600</v>
+      </c>
+      <c r="B122">
+        <v>36992254</v>
+      </c>
+      <c r="C122" s="1">
+        <v>518623</v>
+      </c>
+      <c r="D122">
+        <v>9942</v>
+      </c>
+      <c r="E122" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>409600</v>
+      </c>
+      <c r="B123">
+        <v>40837390</v>
+      </c>
+      <c r="C123" s="1">
+        <v>479136</v>
+      </c>
+      <c r="D123">
+        <v>12879</v>
+      </c>
+      <c r="E123" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>409600</v>
+      </c>
+      <c r="B124">
+        <v>37926666</v>
+      </c>
+      <c r="C124" s="1">
+        <v>462920</v>
+      </c>
+      <c r="D124">
+        <v>12461</v>
+      </c>
+      <c r="E124" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>409600</v>
+      </c>
+      <c r="B125">
+        <v>42009179</v>
+      </c>
+      <c r="C125" s="1">
+        <v>503021</v>
+      </c>
+      <c r="D125">
+        <v>15921</v>
+      </c>
+      <c r="E125" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>409600</v>
+      </c>
+      <c r="B126">
+        <v>40435418</v>
+      </c>
+      <c r="C126" s="1">
+        <v>642787</v>
+      </c>
+      <c r="D126">
+        <v>15945</v>
+      </c>
+      <c r="E126" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>409600</v>
+      </c>
+      <c r="B127">
+        <v>37816866</v>
+      </c>
+      <c r="C127" s="1">
+        <v>555053</v>
+      </c>
+      <c r="D127">
+        <v>15809</v>
+      </c>
+      <c r="E127" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>409600</v>
+      </c>
+      <c r="B128">
+        <v>40805825</v>
+      </c>
+      <c r="C128" s="1">
+        <v>547588</v>
+      </c>
+      <c r="D128">
+        <v>15450</v>
+      </c>
+      <c r="E128" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>409600</v>
+      </c>
+      <c r="B129">
+        <v>43220642</v>
+      </c>
+      <c r="C129" s="1">
+        <v>552091</v>
+      </c>
+      <c r="D129">
+        <v>87574</v>
+      </c>
+      <c r="E129" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>409600</v>
+      </c>
+      <c r="B130">
+        <v>43911265</v>
+      </c>
+      <c r="C130" s="1">
+        <v>588625</v>
+      </c>
+      <c r="D130">
+        <v>18530</v>
+      </c>
+      <c r="E130" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>409600</v>
+      </c>
+      <c r="B131">
+        <v>45365608</v>
+      </c>
+      <c r="C131" s="1">
+        <v>561184</v>
+      </c>
+      <c r="D131">
+        <v>22266</v>
+      </c>
+      <c r="E131" t="b">
+        <f t="shared" ref="E131:E171" si="2">B131&gt;C131&gt;D131</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>819200</v>
+      </c>
+      <c r="B132">
+        <v>42512097</v>
+      </c>
+      <c r="C132" s="1">
+        <v>676851</v>
+      </c>
+      <c r="D132">
+        <v>9681</v>
+      </c>
+      <c r="E132" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>819200</v>
+      </c>
+      <c r="B133">
+        <v>43677172</v>
+      </c>
+      <c r="C133" s="1">
+        <v>722034</v>
+      </c>
+      <c r="D133">
+        <v>10132</v>
+      </c>
+      <c r="E133" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>819200</v>
+      </c>
+      <c r="B134">
+        <v>44633134</v>
+      </c>
+      <c r="C134" s="1">
+        <v>966963</v>
+      </c>
+      <c r="D134">
+        <v>13092</v>
+      </c>
+      <c r="E134" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>819200</v>
+      </c>
+      <c r="B135">
+        <v>55006519</v>
+      </c>
+      <c r="C135" s="1">
+        <v>816340</v>
+      </c>
+      <c r="D135">
+        <v>10150</v>
+      </c>
+      <c r="E135" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>819200</v>
+      </c>
+      <c r="B136">
+        <v>46161684</v>
+      </c>
+      <c r="C136" s="1">
+        <v>634766</v>
+      </c>
+      <c r="D136">
+        <v>9921</v>
+      </c>
+      <c r="E136" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>819200</v>
+      </c>
+      <c r="B137">
+        <v>49289940</v>
+      </c>
+      <c r="C137" s="1">
+        <v>563492</v>
+      </c>
+      <c r="D137">
+        <v>12892</v>
+      </c>
+      <c r="E137" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>819200</v>
+      </c>
+      <c r="B138">
+        <v>48520809</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1988241</v>
+      </c>
+      <c r="D138">
+        <v>12876</v>
+      </c>
+      <c r="E138" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>819200</v>
+      </c>
+      <c r="B139">
+        <v>49948347</v>
+      </c>
+      <c r="C139" s="1">
+        <v>678503</v>
+      </c>
+      <c r="D139">
+        <v>16518</v>
+      </c>
+      <c r="E139" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>819200</v>
+      </c>
+      <c r="B140">
+        <v>50184363</v>
+      </c>
+      <c r="C140" s="1">
+        <v>634080</v>
+      </c>
+      <c r="D140">
+        <v>15714</v>
+      </c>
+      <c r="E140" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>819200</v>
+      </c>
+      <c r="B141">
+        <v>49774882</v>
+      </c>
+      <c r="C141" s="1">
+        <v>523460</v>
+      </c>
+      <c r="D141">
+        <v>18288</v>
+      </c>
+      <c r="E141" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1638400</v>
+      </c>
+      <c r="B142">
+        <v>51995034</v>
+      </c>
+      <c r="C142" s="1">
+        <v>717406</v>
+      </c>
+      <c r="D142">
+        <v>10072</v>
+      </c>
+      <c r="E142" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1638400</v>
+      </c>
+      <c r="B143">
+        <v>50635587</v>
+      </c>
+      <c r="C143" s="1">
+        <v>818939</v>
+      </c>
+      <c r="D143">
+        <v>21856</v>
+      </c>
+      <c r="E143" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1638400</v>
+      </c>
+      <c r="B144">
+        <v>56273893</v>
+      </c>
+      <c r="C144" s="1">
+        <v>810984</v>
+      </c>
+      <c r="D144">
+        <v>12817</v>
+      </c>
+      <c r="E144" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1638400</v>
+      </c>
+      <c r="B145">
+        <v>55102791</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1269998</v>
+      </c>
+      <c r="D145">
+        <v>12731</v>
+      </c>
+      <c r="E145" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1638400</v>
+      </c>
+      <c r="B146">
+        <v>55929332</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1003443</v>
+      </c>
+      <c r="D146">
+        <v>15311</v>
+      </c>
+      <c r="E146" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1638400</v>
+      </c>
+      <c r="B147">
+        <v>54401107</v>
+      </c>
+      <c r="C147" s="1">
+        <v>711571</v>
+      </c>
+      <c r="D147">
+        <v>15809</v>
+      </c>
+      <c r="E147" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1638400</v>
+      </c>
+      <c r="B148">
+        <v>61554114</v>
+      </c>
+      <c r="C148" s="1">
+        <v>598178</v>
+      </c>
+      <c r="D148">
+        <v>15440</v>
+      </c>
+      <c r="E148" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1638400</v>
+      </c>
+      <c r="B149">
+        <v>60512774</v>
+      </c>
+      <c r="C149" s="1">
+        <v>653583</v>
+      </c>
+      <c r="D149">
+        <v>18224</v>
+      </c>
+      <c r="E149" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1638400</v>
+      </c>
+      <c r="B150">
+        <v>59928122</v>
+      </c>
+      <c r="C150" s="1">
+        <v>657383</v>
+      </c>
+      <c r="D150">
+        <v>17918</v>
+      </c>
+      <c r="E150" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1638400</v>
+      </c>
+      <c r="B151">
+        <v>58157387</v>
+      </c>
+      <c r="C151" s="1">
+        <v>657438</v>
+      </c>
+      <c r="D151">
+        <v>22505</v>
+      </c>
+      <c r="E151" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>3276800</v>
+      </c>
+      <c r="B152">
+        <v>58336812</v>
+      </c>
+      <c r="C152" s="1">
+        <v>943388</v>
+      </c>
+      <c r="D152">
+        <v>10357</v>
+      </c>
+      <c r="E152" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>3276800</v>
+      </c>
+      <c r="B153">
+        <v>60181792</v>
+      </c>
+      <c r="C153" s="1">
+        <v>606226</v>
+      </c>
+      <c r="D153">
+        <v>10280</v>
+      </c>
+      <c r="E153" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>3276800</v>
+      </c>
+      <c r="B154">
+        <v>62078667</v>
+      </c>
+      <c r="C154" s="1">
+        <v>622360</v>
+      </c>
+      <c r="D154">
+        <v>10030</v>
+      </c>
+      <c r="E154" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>3276800</v>
+      </c>
+      <c r="B155">
+        <v>60283422</v>
+      </c>
+      <c r="C155" s="1">
+        <v>589510</v>
+      </c>
+      <c r="D155">
+        <v>9908</v>
+      </c>
+      <c r="E155" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>3276800</v>
+      </c>
+      <c r="B156">
+        <v>61677775</v>
+      </c>
+      <c r="C156" s="1">
+        <v>873568</v>
+      </c>
+      <c r="D156">
+        <v>10278</v>
+      </c>
+      <c r="E156" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>3276800</v>
+      </c>
+      <c r="B157">
+        <v>61205396</v>
+      </c>
+      <c r="C157" s="1">
+        <v>947835</v>
+      </c>
+      <c r="D157">
+        <v>9824</v>
+      </c>
+      <c r="E157" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>3276800</v>
+      </c>
+      <c r="B158">
+        <v>68895356</v>
+      </c>
+      <c r="C158" s="1">
+        <v>744464</v>
+      </c>
+      <c r="D158">
+        <v>9574</v>
+      </c>
+      <c r="E158" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>3276800</v>
+      </c>
+      <c r="B159">
+        <v>66282782</v>
+      </c>
+      <c r="C159" s="1">
+        <v>636384</v>
+      </c>
+      <c r="D159">
+        <v>9522</v>
+      </c>
+      <c r="E159" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>3276800</v>
+      </c>
+      <c r="B160">
+        <v>66385019</v>
+      </c>
+      <c r="C160" s="1">
+        <v>567225</v>
+      </c>
+      <c r="D160">
+        <v>15705</v>
+      </c>
+      <c r="E160" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>3276800</v>
+      </c>
+      <c r="B161">
+        <v>72784977</v>
+      </c>
+      <c r="C161" s="1">
+        <v>499058</v>
+      </c>
+      <c r="D161">
+        <v>18595</v>
+      </c>
+      <c r="E161" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>6553600</v>
+      </c>
+      <c r="B162">
+        <v>70089556</v>
+      </c>
+      <c r="C162" s="1">
+        <v>585679</v>
+      </c>
+      <c r="D162">
+        <v>9753</v>
+      </c>
+      <c r="E162" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>6553600</v>
+      </c>
+      <c r="B163">
+        <v>89107748</v>
+      </c>
+      <c r="C163" s="1">
+        <v>591456</v>
+      </c>
+      <c r="D163">
+        <v>12733</v>
+      </c>
+      <c r="E163" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>6553600</v>
+      </c>
+      <c r="B164">
+        <v>68820607</v>
+      </c>
+      <c r="C164" s="1">
+        <v>590811</v>
+      </c>
+      <c r="D164">
+        <v>12935</v>
+      </c>
+      <c r="E164" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>6553600</v>
+      </c>
+      <c r="B165">
+        <v>71510764</v>
+      </c>
+      <c r="C165" s="1">
+        <v>594212</v>
+      </c>
+      <c r="D165">
+        <v>15817</v>
+      </c>
+      <c r="E165" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>6553600</v>
+      </c>
+      <c r="B166">
+        <v>71585441</v>
+      </c>
+      <c r="C166" s="1">
+        <v>985814</v>
+      </c>
+      <c r="D166">
+        <v>15866</v>
+      </c>
+      <c r="E166" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6553600</v>
+      </c>
+      <c r="B167">
+        <v>232099762</v>
+      </c>
+      <c r="C167" s="1">
+        <v>652025</v>
+      </c>
+      <c r="D167">
+        <v>15208</v>
+      </c>
+      <c r="E167" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>6553600</v>
+      </c>
+      <c r="B168">
+        <v>87873129</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1620764</v>
+      </c>
+      <c r="D168">
+        <v>15687</v>
+      </c>
+      <c r="E168" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6553600</v>
+      </c>
+      <c r="B169">
+        <v>139086528</v>
+      </c>
+      <c r="C169" s="1">
+        <v>705517</v>
+      </c>
+      <c r="D169">
+        <v>19241</v>
+      </c>
+      <c r="E169" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>6553600</v>
+      </c>
+      <c r="B170">
+        <v>80789466</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3541861</v>
+      </c>
+      <c r="D170">
+        <v>18612</v>
+      </c>
+      <c r="E170" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>6553600</v>
+      </c>
+      <c r="B171">
+        <v>79802410</v>
+      </c>
+      <c r="C171" s="1">
+        <v>667383</v>
+      </c>
+      <c r="D171">
+        <v>18462</v>
+      </c>
+      <c r="E171" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1750E2E-57E3-3345-9273-3CA3A269DC29}">
   <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B1" sqref="B1:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2186,28 +5294,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A35ABCF-8048-D64E-A85C-DFD606403547}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2217,8 +5334,11 @@
       <c r="C2">
         <v>21385696</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>90232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2228,8 +5348,11 @@
       <c r="C3">
         <v>69233</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>51920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2239,8 +5362,11 @@
       <c r="C4">
         <v>57784</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>63905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -2250,8 +5376,11 @@
       <c r="C5">
         <v>75134</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>49868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -2261,8 +5390,11 @@
       <c r="C6">
         <v>102345</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>56584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -2272,8 +5404,11 @@
       <c r="C7">
         <v>123252</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>63479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -2283,8 +5418,11 @@
       <c r="C8">
         <v>156198</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>59493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2294,8 +5432,11 @@
       <c r="C9">
         <v>194313</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>62859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2305,8 +5446,11 @@
       <c r="C10">
         <v>243766</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>69438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -2316,8 +5460,11 @@
       <c r="C11">
         <v>283102</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>75145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200</v>
       </c>
@@ -2327,8 +5474,11 @@
       <c r="C12">
         <v>373611</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>95535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200</v>
       </c>
@@ -2338,8 +5488,11 @@
       <c r="C13">
         <v>440987</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>87261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>200</v>
       </c>
@@ -2349,8 +5502,11 @@
       <c r="C14">
         <v>645479</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>112586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>200</v>
       </c>
@@ -2360,8 +5516,11 @@
       <c r="C15">
         <v>589455</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>94125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>200</v>
       </c>
@@ -2371,8 +5530,11 @@
       <c r="C16">
         <v>712984</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>95223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>200</v>
       </c>
@@ -2382,8 +5544,11 @@
       <c r="C17">
         <v>797814</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>105553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200</v>
       </c>
@@ -2393,8 +5558,11 @@
       <c r="C18">
         <v>32831334</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>103038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>200</v>
       </c>
@@ -2404,8 +5572,11 @@
       <c r="C19">
         <v>2770161</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>105729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>200</v>
       </c>
@@ -2415,8 +5586,11 @@
       <c r="C20">
         <v>1315074</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>115938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>200</v>
       </c>
@@ -2426,8 +5600,11 @@
       <c r="C21">
         <v>1576713</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>105698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>400</v>
       </c>
@@ -2437,8 +5614,11 @@
       <c r="C22">
         <v>1782803</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>143338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>400</v>
       </c>
@@ -2448,8 +5628,11 @@
       <c r="C23">
         <v>2023525</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>170228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>400</v>
       </c>
@@ -2459,8 +5642,11 @@
       <c r="C24">
         <v>1805548</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>147101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>400</v>
       </c>
@@ -2470,8 +5656,11 @@
       <c r="C25">
         <v>2143795</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>155386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>400</v>
       </c>
@@ -2481,8 +5670,11 @@
       <c r="C26">
         <v>2054358</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>155944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>400</v>
       </c>
@@ -2492,8 +5684,11 @@
       <c r="C27">
         <v>6461163</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>170791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>400</v>
       </c>
@@ -2503,8 +5698,11 @@
       <c r="C28">
         <v>7736097</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>163808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>400</v>
       </c>
@@ -2514,8 +5712,11 @@
       <c r="C29">
         <v>3149283</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>509628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>400</v>
       </c>
@@ -2525,8 +5726,11 @@
       <c r="C30">
         <v>2703794</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>164213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>400</v>
       </c>
@@ -2536,8 +5740,11 @@
       <c r="C31">
         <v>5925348</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>145180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>800</v>
       </c>
@@ -2547,8 +5754,11 @@
       <c r="C32">
         <v>2985938</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>168071</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>800</v>
       </c>
@@ -2558,8 +5768,11 @@
       <c r="C33">
         <v>3077910</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>222349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>800</v>
       </c>
@@ -2569,8 +5782,11 @@
       <c r="C34">
         <v>3528261</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>174805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>800</v>
       </c>
@@ -2580,8 +5796,11 @@
       <c r="C35">
         <v>54409891</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>187062</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>800</v>
       </c>
@@ -2591,8 +5810,11 @@
       <c r="C36">
         <v>12060727</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>195479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>800</v>
       </c>
@@ -2602,8 +5824,11 @@
       <c r="C37">
         <v>8578253</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>186977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>800</v>
       </c>
@@ -2613,8 +5838,11 @@
       <c r="C38">
         <v>24182131</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>190902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>800</v>
       </c>
@@ -2624,8 +5852,11 @@
       <c r="C39">
         <v>7746891</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>200161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>800</v>
       </c>
@@ -2635,8 +5866,11 @@
       <c r="C40">
         <v>10990552</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>192565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>800</v>
       </c>
@@ -2646,8 +5880,11 @@
       <c r="C41">
         <v>15175429</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>163922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1600</v>
       </c>
@@ -2657,8 +5894,11 @@
       <c r="C42">
         <v>21984835</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>187680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1600</v>
       </c>
@@ -2668,8 +5908,11 @@
       <c r="C43">
         <v>8145291</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>193117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1600</v>
       </c>
@@ -2679,8 +5922,11 @@
       <c r="C44">
         <v>7238811</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>194206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1600</v>
       </c>
@@ -2690,8 +5936,11 @@
       <c r="C45">
         <v>31443124</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>214306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1600</v>
       </c>
@@ -2701,8 +5950,11 @@
       <c r="C46">
         <v>10654199</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>219358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1600</v>
       </c>
@@ -2712,8 +5964,11 @@
       <c r="C47">
         <v>17201766</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>205437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1600</v>
       </c>
@@ -2723,8 +5978,11 @@
       <c r="C48">
         <v>15660289</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>207045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1600</v>
       </c>
@@ -2734,8 +5992,11 @@
       <c r="C49">
         <v>32568224</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>207741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1600</v>
       </c>
@@ -2745,8 +6006,11 @@
       <c r="C50">
         <v>24264093</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>220032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1600</v>
       </c>
@@ -2756,8 +6020,11 @@
       <c r="C51">
         <v>20988342</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>251781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3200</v>
       </c>
@@ -2767,8 +6034,11 @@
       <c r="C52">
         <v>26078240</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>239038</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3200</v>
       </c>
@@ -2778,8 +6048,11 @@
       <c r="C53">
         <v>23555763</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>258698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3200</v>
       </c>
@@ -2789,8 +6062,11 @@
       <c r="C54">
         <v>52933718</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>238451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3200</v>
       </c>
@@ -2800,8 +6076,11 @@
       <c r="C55">
         <v>25040337</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>242195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3200</v>
       </c>
@@ -2811,8 +6090,11 @@
       <c r="C56">
         <v>10079832</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>252366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3200</v>
       </c>
@@ -2822,8 +6104,11 @@
       <c r="C57">
         <v>15080645</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>285602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3200</v>
       </c>
@@ -2833,8 +6118,11 @@
       <c r="C58">
         <v>13726537</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>243971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3200</v>
       </c>
@@ -2844,8 +6132,11 @@
       <c r="C59">
         <v>14238959</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>249637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3200</v>
       </c>
@@ -2855,8 +6146,11 @@
       <c r="C60">
         <v>19440012</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>254701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3200</v>
       </c>
@@ -2866,8 +6160,11 @@
       <c r="C61">
         <v>14592800</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>228830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6400</v>
       </c>
@@ -2877,8 +6174,11 @@
       <c r="C62">
         <v>13637970</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>254573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6400</v>
       </c>
@@ -2888,8 +6188,11 @@
       <c r="C63">
         <v>12285671</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>262861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6400</v>
       </c>
@@ -2899,8 +6202,11 @@
       <c r="C64">
         <v>28104332</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>277170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -2910,8 +6216,11 @@
       <c r="C65">
         <v>22979961</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>269734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6400</v>
       </c>
@@ -2921,8 +6230,11 @@
       <c r="C66">
         <v>29628724</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>349009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6400</v>
       </c>
@@ -2932,8 +6244,11 @@
       <c r="C67">
         <v>83317375</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>338715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6400</v>
       </c>
@@ -2943,8 +6258,11 @@
       <c r="C68">
         <v>17368600</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>293610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6400</v>
       </c>
@@ -2954,8 +6272,11 @@
       <c r="C69">
         <v>32168266</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>287671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6400</v>
       </c>
@@ -2965,8 +6286,11 @@
       <c r="C70">
         <v>33995928</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>307913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>6400</v>
       </c>
@@ -2976,8 +6300,11 @@
       <c r="C71">
         <v>34303493</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>262994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>12800</v>
       </c>
@@ -2987,8 +6314,11 @@
       <c r="C72">
         <v>49430597</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>297391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>12800</v>
       </c>
@@ -2998,8 +6328,11 @@
       <c r="C73">
         <v>70077043</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>412782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>12800</v>
       </c>
@@ -3009,8 +6342,11 @@
       <c r="C74">
         <v>24211363</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>366459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>12800</v>
       </c>
@@ -3020,8 +6356,11 @@
       <c r="C75">
         <v>41769228</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>383252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>12800</v>
       </c>
@@ -3031,8 +6370,11 @@
       <c r="C76">
         <v>25521259</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>349801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>12800</v>
       </c>
@@ -3042,8 +6384,11 @@
       <c r="C77">
         <v>33609534</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>362999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>12800</v>
       </c>
@@ -3053,8 +6398,11 @@
       <c r="C78">
         <v>24952052</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>348032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>12800</v>
       </c>
@@ -3064,8 +6412,11 @@
       <c r="C79">
         <v>26216821</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>358178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>12800</v>
       </c>
@@ -3075,8 +6426,11 @@
       <c r="C80">
         <v>35096031</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>346610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12800</v>
       </c>
@@ -3086,8 +6440,11 @@
       <c r="C81">
         <v>27131119</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>359220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>25600</v>
       </c>
@@ -3097,8 +6454,11 @@
       <c r="C82">
         <v>59760084</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>348554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>25600</v>
       </c>
@@ -3108,8 +6468,11 @@
       <c r="C83">
         <v>24429068</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>375896</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>25600</v>
       </c>
@@ -3119,8 +6482,11 @@
       <c r="C84">
         <v>51600210</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>360879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>25600</v>
       </c>
@@ -3130,8 +6496,11 @@
       <c r="C85">
         <v>58583616</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>415392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>25600</v>
       </c>
@@ -3141,8 +6510,11 @@
       <c r="C86">
         <v>79061569</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>372654</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>25600</v>
       </c>
@@ -3152,8 +6524,11 @@
       <c r="C87">
         <v>51639934</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>372778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>25600</v>
       </c>
@@ -3163,8 +6538,11 @@
       <c r="C88">
         <v>46706414</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>398924</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>25600</v>
       </c>
@@ -3174,8 +6552,11 @@
       <c r="C89">
         <v>44862821</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>380178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>25600</v>
       </c>
@@ -3185,8 +6566,11 @@
       <c r="C90">
         <v>39448343</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>379481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>25600</v>
       </c>
@@ -3196,8 +6580,11 @@
       <c r="C91">
         <v>67749000</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>1812165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>51200</v>
       </c>
@@ -3207,8 +6594,11 @@
       <c r="C92">
         <v>51613110</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>398235</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>51200</v>
       </c>
@@ -3218,8 +6608,11 @@
       <c r="C93">
         <v>54296920</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>400984</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>51200</v>
       </c>
@@ -3229,8 +6622,11 @@
       <c r="C94">
         <v>37575851</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>426164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>51200</v>
       </c>
@@ -3240,8 +6636,11 @@
       <c r="C95">
         <v>55213317</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>398104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>51200</v>
       </c>
@@ -3251,8 +6650,11 @@
       <c r="C96">
         <v>49410488</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>411731</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>51200</v>
       </c>
@@ -3262,8 +6664,11 @@
       <c r="C97">
         <v>33274395</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>399765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>51200</v>
       </c>
@@ -3273,8 +6678,11 @@
       <c r="C98">
         <v>35421742</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>859534</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>51200</v>
       </c>
@@ -3284,8 +6692,11 @@
       <c r="C99">
         <v>42631670</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>388400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>51200</v>
       </c>
@@ -3295,8 +6706,11 @@
       <c r="C100">
         <v>32633605</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>407054</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>51200</v>
       </c>
@@ -3306,8 +6720,11 @@
       <c r="C101">
         <v>41985998</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>354143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102400</v>
       </c>
@@ -3317,8 +6734,11 @@
       <c r="C102">
         <v>44319344</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>395383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102400</v>
       </c>
@@ -3328,8 +6748,11 @@
       <c r="C103">
         <v>35986654</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>379834</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102400</v>
       </c>
@@ -3339,8 +6762,11 @@
       <c r="C104">
         <v>45377132</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>1148267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102400</v>
       </c>
@@ -3350,8 +6776,11 @@
       <c r="C105">
         <v>42087822</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>543400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>102400</v>
       </c>
@@ -3361,8 +6790,11 @@
       <c r="C106">
         <v>39965480</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>458229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>102400</v>
       </c>
@@ -3372,8 +6804,11 @@
       <c r="C107">
         <v>49717578</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>1526031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>102400</v>
       </c>
@@ -3383,8 +6818,11 @@
       <c r="C108">
         <v>43351454</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>1762301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>102400</v>
       </c>
@@ -3394,8 +6832,11 @@
       <c r="C109">
         <v>49785199</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>438865</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>102400</v>
       </c>
@@ -3405,8 +6846,11 @@
       <c r="C110">
         <v>51109482</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>1594588</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>102400</v>
       </c>
@@ -3416,8 +6860,11 @@
       <c r="C111">
         <v>58944923</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>379742</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>204800</v>
       </c>
@@ -3427,8 +6874,11 @@
       <c r="C112">
         <v>51647512</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>5429375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>204800</v>
       </c>
@@ -3438,8 +6888,11 @@
       <c r="C113">
         <v>52893786</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>13899822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>204800</v>
       </c>
@@ -3449,8 +6902,11 @@
       <c r="C114">
         <v>60102853</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>2856160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>204800</v>
       </c>
@@ -3460,8 +6916,11 @@
       <c r="C115">
         <v>43689945</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>3021147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>204800</v>
       </c>
@@ -3471,8 +6930,11 @@
       <c r="C116">
         <v>57867121</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>1050040</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>204800</v>
       </c>
@@ -3482,8 +6944,11 @@
       <c r="C117">
         <v>71524902</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>889067</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>204800</v>
       </c>
@@ -3493,8 +6958,11 @@
       <c r="C118">
         <v>59120170</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>871640</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>204800</v>
       </c>
@@ -3504,8 +6972,11 @@
       <c r="C119">
         <v>58100981</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>1298093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>204800</v>
       </c>
@@ -3515,8 +6986,11 @@
       <c r="C120">
         <v>61969096</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>2566390</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>204800</v>
       </c>
@@ -3526,8 +7000,11 @@
       <c r="C121">
         <v>77983558</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>3327922</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>409600</v>
       </c>
@@ -3537,8 +7014,11 @@
       <c r="C122">
         <v>56375373</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>518623</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>409600</v>
       </c>
@@ -3548,8 +7028,11 @@
       <c r="C123">
         <v>62857468</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>479136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>409600</v>
       </c>
@@ -3559,8 +7042,11 @@
       <c r="C124">
         <v>57174196</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>462920</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>409600</v>
       </c>
@@ -3570,8 +7056,11 @@
       <c r="C125">
         <v>62779273</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>503021</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>409600</v>
       </c>
@@ -3581,8 +7070,11 @@
       <c r="C126">
         <v>60668777</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>642787</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>409600</v>
       </c>
@@ -3592,8 +7084,11 @@
       <c r="C127">
         <v>62884925</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>555053</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>409600</v>
       </c>
@@ -3603,8 +7098,11 @@
       <c r="C128">
         <v>60238243</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>547588</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>409600</v>
       </c>
@@ -3614,8 +7112,11 @@
       <c r="C129">
         <v>63015251</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>552091</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>409600</v>
       </c>
@@ -3625,8 +7126,11 @@
       <c r="C130">
         <v>57304064</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>588625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>409600</v>
       </c>
@@ -3636,8 +7140,11 @@
       <c r="C131">
         <v>61064511</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>561184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>819200</v>
       </c>
@@ -3647,8 +7154,11 @@
       <c r="C132">
         <v>56629290</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>676851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>819200</v>
       </c>
@@ -3658,8 +7168,11 @@
       <c r="C133">
         <v>70427514</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>722034</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>819200</v>
       </c>
@@ -3669,8 +7182,11 @@
       <c r="C134">
         <v>64324645</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>966963</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>819200</v>
       </c>
@@ -3680,8 +7196,11 @@
       <c r="C135">
         <v>60553831</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>816340</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>819200</v>
       </c>
@@ -3691,8 +7210,11 @@
       <c r="C136">
         <v>66053540</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>634766</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>819200</v>
       </c>
@@ -3702,8 +7224,11 @@
       <c r="C137">
         <v>66995414</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>563492</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>819200</v>
       </c>
@@ -3713,8 +7238,11 @@
       <c r="C138">
         <v>64224834</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>1988241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>819200</v>
       </c>
@@ -3724,8 +7252,11 @@
       <c r="C139">
         <v>67528995</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>678503</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>819200</v>
       </c>
@@ -3735,8 +7266,11 @@
       <c r="C140">
         <v>77868145</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>634080</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>819200</v>
       </c>
@@ -3746,8 +7280,11 @@
       <c r="C141">
         <v>77059385</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>523460</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1638400</v>
       </c>
@@ -3757,8 +7294,11 @@
       <c r="C142">
         <v>70848916</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>717406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1638400</v>
       </c>
@@ -3768,8 +7308,11 @@
       <c r="C143">
         <v>76834406</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>818939</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1638400</v>
       </c>
@@ -3779,8 +7322,11 @@
       <c r="C144">
         <v>79383452</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>810984</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1638400</v>
       </c>
@@ -3790,8 +7336,11 @@
       <c r="C145">
         <v>62888278</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>1269998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1638400</v>
       </c>
@@ -3801,8 +7350,11 @@
       <c r="C146">
         <v>64409470</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>1003443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1638400</v>
       </c>
@@ -3812,8 +7364,11 @@
       <c r="C147">
         <v>73401547</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>711571</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1638400</v>
       </c>
@@ -3823,8 +7378,11 @@
       <c r="C148">
         <v>74367674</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>598178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1638400</v>
       </c>
@@ -3834,8 +7392,11 @@
       <c r="C149">
         <v>158276092</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>653583</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1638400</v>
       </c>
@@ -3845,8 +7406,11 @@
       <c r="C150">
         <v>101252852</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>657383</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1638400</v>
       </c>
@@ -3856,8 +7420,11 @@
       <c r="C151">
         <v>70872625</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>657438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3276800</v>
       </c>
@@ -3867,8 +7434,11 @@
       <c r="C152">
         <v>83955189</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>943388</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3276800</v>
       </c>
@@ -3878,8 +7448,11 @@
       <c r="C153">
         <v>81773628</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>606226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3276800</v>
       </c>
@@ -3889,8 +7462,11 @@
       <c r="C154">
         <v>74574822</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>622360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3276800</v>
       </c>
@@ -3900,8 +7476,11 @@
       <c r="C155">
         <v>86295646</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>589510</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3276800</v>
       </c>
@@ -3911,8 +7490,11 @@
       <c r="C156">
         <v>84171607</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>873568</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3276800</v>
       </c>
@@ -3922,8 +7504,11 @@
       <c r="C157">
         <v>167772438</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>947835</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3276800</v>
       </c>
@@ -3933,8 +7518,11 @@
       <c r="C158">
         <v>119368063</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>744464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>3276800</v>
       </c>
@@ -3944,8 +7532,11 @@
       <c r="C159">
         <v>84014722</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>636384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3276800</v>
       </c>
@@ -3955,8 +7546,11 @@
       <c r="C160">
         <v>92726745</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>567225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3276800</v>
       </c>
@@ -3966,8 +7560,11 @@
       <c r="C161">
         <v>87765280</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>499058</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6553600</v>
       </c>
@@ -3977,8 +7574,11 @@
       <c r="C162">
         <v>97746571</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>585679</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6553600</v>
       </c>
@@ -3988,8 +7588,11 @@
       <c r="C163">
         <v>88138261</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>591456</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6553600</v>
       </c>
@@ -3999,8 +7602,11 @@
       <c r="C164">
         <v>89608790</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>590811</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6553600</v>
       </c>
@@ -4010,8 +7616,11 @@
       <c r="C165">
         <v>92987336</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>594212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6553600</v>
       </c>
@@ -4021,8 +7630,11 @@
       <c r="C166">
         <v>95520135</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>985814</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6553600</v>
       </c>
@@ -4032,8 +7644,11 @@
       <c r="C167">
         <v>101674209</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>652025</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6553600</v>
       </c>
@@ -4043,8 +7658,11 @@
       <c r="C168">
         <v>106835878</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>1620764</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6553600</v>
       </c>
@@ -4054,8 +7672,11 @@
       <c r="C169">
         <v>107523638</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>705517</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6553600</v>
       </c>
@@ -4065,8 +7686,11 @@
       <c r="C170">
         <v>96496953</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>3541861</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6553600</v>
       </c>
@@ -4075,6 +7699,9 @@
       </c>
       <c r="C171">
         <v>94672980</v>
+      </c>
+      <c r="D171">
+        <v>667383</v>
       </c>
     </row>
   </sheetData>
@@ -4082,12 +7709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492A7D75-64A6-F749-AD41-EBE47F54075A}">
   <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
